--- a/重庆公共运输职业学院课堂手机使用情况.xlsx
+++ b/重庆公共运输职业学院课堂手机使用情况.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\github\python-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EDA0A4-E252-4EE5-9371-5384D034FB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F85994-92AA-4257-B27E-514616B0CF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39360" yWindow="3795" windowWidth="26670" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>管理后使用率</t>
+    <t>教师管理手机使用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未实施管理使用率</t>
+    <t>学生管理手机使用率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制度管理手机使用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -357,79 +362,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2015</v>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43497</v>
       </c>
       <c r="B2">
+        <f>(D2+C2)/2</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C2">
         <v>0.2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2016</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43525</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B7" si="0">(D3+C3)/2</f>
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="C3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2017</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43556</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C4">
         <v>0.37</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2018</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43586</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="C5">
         <v>0.42</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2019</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43617</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="C6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>0.23</v>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.52</v>
+      </c>
+      <c r="D7">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>

--- a/重庆公共运输职业学院课堂手机使用情况.xlsx
+++ b/重庆公共运输职业学院课堂手机使用情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\github\python-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F85994-92AA-4257-B27E-514616B0CF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D560B56-42A5-4AC7-A64B-0EE809FA37E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,6 +43,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -362,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
@@ -388,7 +392,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>43497</v>
       </c>
       <c r="B2">
@@ -403,7 +407,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>43525</v>
       </c>
       <c r="B3">
@@ -418,7 +422,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>43556</v>
       </c>
       <c r="B4">
@@ -433,7 +437,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>43586</v>
       </c>
       <c r="B5">
@@ -448,7 +452,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>43617</v>
       </c>
       <c r="B6">
@@ -463,7 +467,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>43647</v>
       </c>
       <c r="B7">
@@ -476,6 +480,24 @@
       <c r="D7">
         <v>0.27</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
